--- a/educationmapper_data.xlsx
+++ b/educationmapper_data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -31,12 +31,21 @@
     <t xml:space="preserve">topic</t>
   </si>
   <si>
-    <t xml:space="preserve">number</t>
+    <t xml:space="preserve">number_participants</t>
   </si>
   <si>
     <t xml:space="preserve">type</t>
   </si>
   <si>
+    <t xml:space="preserve">institution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_audience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duration_in_h</t>
+  </si>
+  <si>
     <t xml:space="preserve">Epikurs Daten für Taten</t>
   </si>
   <si>
@@ -46,6 +55,12 @@
     <t xml:space="preserve">seminar</t>
   </si>
   <si>
+    <t xml:space="preserve">RKI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AÄ, HygKo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Epikurs Ausbruch</t>
   </si>
   <si>
@@ -61,6 +76,9 @@
     <t xml:space="preserve">onlineseminar</t>
   </si>
   <si>
+    <t xml:space="preserve">AÖGW, RKI</t>
+  </si>
+  <si>
     <t xml:space="preserve">AÖGW Kurs Krisenmanagment</t>
   </si>
   <si>
@@ -73,6 +91,24 @@
     <t xml:space="preserve">congress</t>
   </si>
   <si>
+    <t xml:space="preserve">BVÖGD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AÄ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epidemiologie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAE outbreak module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ausbruchsmanagement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Types</t>
   </si>
   <si>
@@ -82,9 +118,6 @@
     <t xml:space="preserve">HygKo</t>
   </si>
   <si>
-    <t xml:space="preserve">AÄ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wissenschaftler</t>
   </si>
   <si>
@@ -95,9 +128,6 @@
   </si>
   <si>
     <t xml:space="preserve">Desinfektor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RKI</t>
   </si>
   <si>
     <t xml:space="preserve">AÖGW</t>
@@ -145,6 +175,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -230,93 +261,196 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>6</v>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="n">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="0" t="n">
+      <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="1" t="n">
         <v>200</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -338,64 +472,64 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>17</v>
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="0" t="n">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>3000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="0" t="n">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="0" t="n">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="0" t="n">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="0" t="n">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="n">
         <v>30</v>
       </c>
     </row>
@@ -415,27 +549,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>24</v>
+      <c r="A2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>25</v>
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -460,61 +599,61 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>28</v>
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>31</v>
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>31</v>
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>31</v>
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>31</v>
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
